--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -75,38 +75,41 @@
     <t>paul</t>
   </si>
   <si>
-    <t>jan22controller1@gmail.com</t>
-  </si>
-  <si>
-    <t>jan22proctor1@gmail.com</t>
-  </si>
-  <si>
-    <t>jan22examtaker1@gmail.com</t>
-  </si>
-  <si>
-    <t>christophe</t>
-  </si>
-  <si>
-    <t>danie</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>anthon</t>
-  </si>
-  <si>
-    <t>andre</t>
-  </si>
-  <si>
-    <t>pau</t>
+    <t>william</t>
+  </si>
+  <si>
+    <t>jacob</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>matthew</t>
+  </si>
+  <si>
+    <t>ethan</t>
+  </si>
+  <si>
+    <t>joseph</t>
+  </si>
+  <si>
+    <t>f9f3d065b87f43@cashbenties.com</t>
+  </si>
+  <si>
+    <t>5a2e1e65b87f59@cashbenties.com</t>
+  </si>
+  <si>
+    <t>8df5d665b87f63@cashbenties.com</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,16 +137,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,12 +166,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -164,6 +194,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,7 +502,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +512,7 @@
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,52 +538,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="5">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="5">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="5">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5">
         <v>2023</v>
@@ -563,14 +596,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A4" r:id="rId2" display="january22controller@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,71 +45,41 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>jan22controller@gmail.com</t>
-  </si>
-  <si>
-    <t>jan22proctor@gmail.com</t>
-  </si>
-  <si>
-    <t>jan22examtaker@gmail.com</t>
-  </si>
-  <si>
-    <t>christopher</t>
-  </si>
-  <si>
-    <t>daniel</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>anthony</t>
-  </si>
-  <si>
-    <t>andrew</t>
-  </si>
-  <si>
-    <t>paul</t>
-  </si>
-  <si>
-    <t>william</t>
-  </si>
-  <si>
-    <t>jacob</t>
-  </si>
-  <si>
-    <t>michael</t>
-  </si>
-  <si>
-    <t>matthew</t>
-  </si>
-  <si>
-    <t>ethan</t>
-  </si>
-  <si>
-    <t>joseph</t>
-  </si>
-  <si>
-    <t>f9f3d065b87f43@cashbenties.com</t>
-  </si>
-  <si>
-    <t>5a2e1e65b87f59@cashbenties.com</t>
-  </si>
-  <si>
-    <t>8df5d665b87f63@cashbenties.com</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
+    <t>oliver</t>
+  </si>
+  <si>
+    <t>jake</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>connor</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>callum</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>g9f3d065b87f4rt63@cashbenties.com</t>
+  </si>
+  <si>
+    <t>ga2e1e65b87f598h@cashbenties.com</t>
+  </si>
+  <si>
+    <t>gdf5d665b87f636y@cashbenties.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +102,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF191919"/>
+      <name val="EF Circular Latin"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,12 +116,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
+        <fgColor rgb="FFF7F7F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,16 +131,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFA2A9B1"/>
+        <color rgb="FFDFDFDF"/>
       </left>
       <right style="medium">
-        <color rgb="FFA2A9B1"/>
+        <color rgb="FFB3B3B2"/>
       </right>
       <top style="medium">
-        <color rgb="FFA2A9B1"/>
+        <color rgb="FFDFDFDF"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFA2A9B1"/>
+        <color rgb="FFDFDFDF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB3B3B2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFDFDF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFDFDF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFDFDF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,9 +171,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -501,18 +481,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,52 +518,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>2023</v>
@@ -596,8 +576,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -605,11 +590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
@@ -617,7 +602,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,52 +628,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="5">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="5">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="5">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>2023</v>
@@ -703,12 +688,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A4" r:id="rId2" display="january22controller@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -718,7 +702,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -73,13 +73,43 @@
   </si>
   <si>
     <t>gdf5d665b87f636y@cashbenties.com</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>oskar</t>
+  </si>
+  <si>
+    <t>maximilian</t>
+  </si>
+  <si>
+    <t>lukas</t>
+  </si>
+  <si>
+    <t>noah</t>
+  </si>
+  <si>
+    <t>controllerfeb02@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb02@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb03@fpk12.com</t>
+  </si>
+  <si>
+    <t>ottos</t>
+  </si>
+  <si>
+    <t>schmidts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +135,12 @@
       <sz val="10"/>
       <color rgb="FF191919"/>
       <name val="EF Circular Latin"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -177,6 +213,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -492,7 +529,7 @@
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,52 +555,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
+    <row r="2" spans="1:8" s="5" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="5">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:8" s="5" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="5">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
+    <row r="4" spans="1:8" s="5" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="5">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5">
         <v>2023</v>
@@ -590,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,71 +45,41 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>oliver</t>
-  </si>
-  <si>
-    <t>jake</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>connor</t>
-  </si>
-  <si>
-    <t>harry</t>
-  </si>
-  <si>
-    <t>callum</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>g9f3d065b87f4rt63@cashbenties.com</t>
-  </si>
-  <si>
-    <t>ga2e1e65b87f598h@cashbenties.com</t>
-  </si>
-  <si>
-    <t>gdf5d665b87f636y@cashbenties.com</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>oskar</t>
-  </si>
-  <si>
-    <t>maximilian</t>
-  </si>
-  <si>
-    <t>lukas</t>
-  </si>
-  <si>
-    <t>noah</t>
-  </si>
-  <si>
-    <t>controllerfeb02@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb02@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb03@fpk12.com</t>
-  </si>
-  <si>
-    <t>ottos</t>
-  </si>
-  <si>
-    <t>schmidts</t>
+    <t>controllerfeb04@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb04@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb04@fpk12.com</t>
+  </si>
+  <si>
+    <t>oskars</t>
+  </si>
+  <si>
+    <t>maximilians</t>
+  </si>
+  <si>
+    <t>lukass</t>
+  </si>
+  <si>
+    <t>noahs</t>
+  </si>
+  <si>
+    <t>ottoss</t>
+  </si>
+  <si>
+    <t>schimidts</t>
+  </si>
+  <si>
+    <t>Ukrine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,31 +103,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF191919"/>
-      <name val="EF Circular Latin"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -165,55 +124,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFDFDF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB3B3B2"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFDFDF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFDFDF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB3B3B2"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFDFDF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFDFDF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFDFDF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,18 +441,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,52 +478,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="5">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5">
         <v>2023</v>
@@ -627,11 +550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
@@ -639,7 +562,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,52 +588,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="5">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5">
         <v>2023</v>
@@ -739,7 +662,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -45,41 +45,41 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfeb04@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb04@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb04@fpk12.com</t>
-  </si>
-  <si>
-    <t>oskars</t>
-  </si>
-  <si>
-    <t>maximilians</t>
-  </si>
-  <si>
-    <t>lukass</t>
-  </si>
-  <si>
-    <t>noahs</t>
-  </si>
-  <si>
-    <t>ottoss</t>
-  </si>
-  <si>
-    <t>schimidts</t>
-  </si>
-  <si>
-    <t>Ukrine</t>
+    <t>controllerfebpipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfebpipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfebpipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>brian</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>roberto</t>
+  </si>
+  <si>
+    <t>liam</t>
+  </si>
+  <si>
+    <t>ramon</t>
+  </si>
+  <si>
+    <t>nathaniel</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +96,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF0B3F51"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,14 +124,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,6 +448,7 @@
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -478,60 +477,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>9494</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>8897</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>2023</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>28</v>
       </c>
     </row>
@@ -550,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -559,7 +558,7 @@
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -588,60 +587,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>9494</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>8897</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2023</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>28</v>
       </c>
     </row>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -45,41 +45,71 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfebpipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfebpipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfebpipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>brian</t>
-  </si>
-  <si>
-    <t>miles</t>
-  </si>
-  <si>
-    <t>roberto</t>
-  </si>
-  <si>
-    <t>liam</t>
-  </si>
-  <si>
-    <t>ramon</t>
-  </si>
-  <si>
-    <t>nathaniel</t>
-  </si>
-  <si>
-    <t>AzurePipelineLOC</t>
+    <t>controllerfebpipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfebpipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfebpipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>adams</t>
+  </si>
+  <si>
+    <t>campbell</t>
+  </si>
+  <si>
+    <t>parker</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
+    <t>nelson</t>
+  </si>
+  <si>
+    <t>edwards</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC1</t>
+  </si>
+  <si>
+    <t>controllerfebpipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfebpipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfebpipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>adamhss</t>
+  </si>
+  <si>
+    <t>campbellsh</t>
+  </si>
+  <si>
+    <t>parkersh</t>
+  </si>
+  <si>
+    <t>bakersh</t>
+  </si>
+  <si>
+    <t>nelsonh</t>
+  </si>
+  <si>
+    <t>edwardssh</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +128,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0B3F51"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,17 +161,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +484,7 @@
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -477,60 +513,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>9494</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>8897</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>2023</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>28</v>
       </c>
     </row>
@@ -549,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +594,7 @@
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -589,13 +625,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -603,36 +639,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -45,21 +45,12 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfebpipeline02@fpk12.com</t>
-  </si>
-  <si>
     <t>proctorfebpipeline02@fpk12.com</t>
   </si>
   <si>
     <t>examtakerfebpipeline02@fpk12.com</t>
   </si>
   <si>
-    <t>adams</t>
-  </si>
-  <si>
-    <t>campbell</t>
-  </si>
-  <si>
     <t>parker</t>
   </si>
   <si>
@@ -103,6 +94,15 @@
   </si>
   <si>
     <t>AzurePipelineLOC3</t>
+  </si>
+  <si>
+    <t>controllerfebpipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>adamss</t>
+  </si>
+  <si>
+    <t>campbells</t>
   </si>
 </sst>
 </file>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,13 +515,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -529,36 +529,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
@@ -625,13 +625,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -639,36 +639,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Email</t>
   </si>
@@ -45,27 +45,6 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>proctorfebpipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfebpipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>parker</t>
-  </si>
-  <si>
-    <t>baker</t>
-  </si>
-  <si>
-    <t>nelson</t>
-  </si>
-  <si>
-    <t>edwards</t>
-  </si>
-  <si>
-    <t>AzurePipelineLOC1</t>
-  </si>
-  <si>
     <t>controllerfebpipeline04@fpk12.com</t>
   </si>
   <si>
@@ -96,13 +75,28 @@
     <t>AzurePipelineLOC3</t>
   </si>
   <si>
-    <t>controllerfebpipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>adamss</t>
-  </si>
-  <si>
-    <t>campbells</t>
+    <t>proctorfebpipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfebpipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>adamssh</t>
+  </si>
+  <si>
+    <t>parkers</t>
+  </si>
+  <si>
+    <t>bakers</t>
+  </si>
+  <si>
+    <t>nelsons</t>
+  </si>
+  <si>
+    <t>edwardss</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC2</t>
   </si>
 </sst>
 </file>
@@ -476,7 +470,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,13 +509,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -529,36 +523,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -625,13 +619,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -639,36 +633,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -45,58 +45,40 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfebpipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfebpipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfebpipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>adamhss</t>
-  </si>
-  <si>
-    <t>campbellsh</t>
-  </si>
-  <si>
-    <t>parkersh</t>
-  </si>
-  <si>
-    <t>bakersh</t>
-  </si>
-  <si>
-    <t>nelsonh</t>
-  </si>
-  <si>
-    <t>edwardssh</t>
-  </si>
-  <si>
-    <t>AzurePipelineLOC3</t>
-  </si>
-  <si>
-    <t>proctorfebpipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfebpipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>adamssh</t>
-  </si>
-  <si>
-    <t>parkers</t>
-  </si>
-  <si>
-    <t>bakers</t>
-  </si>
-  <si>
-    <t>nelsons</t>
-  </si>
-  <si>
-    <t>edwardss</t>
-  </si>
-  <si>
-    <t>AzurePipelineLOC2</t>
+    <t>AzurePipelineLOC feb12</t>
+  </si>
+  <si>
+    <t>controllerfeb12pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb12pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb12pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb12pipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb12pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>kenneth</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>brian</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>timothy</t>
   </si>
 </sst>
 </file>
@@ -128,7 +110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,7 +452,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +460,7 @@
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -509,13 +491,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -523,36 +505,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -580,7 +562,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +570,7 @@
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -619,13 +601,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -633,36 +615,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,40 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>AzurePipelineLOC feb12</t>
-  </si>
-  <si>
-    <t>controllerfeb12pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb12pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb12pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb12pipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb12pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>joshua</t>
-  </si>
-  <si>
-    <t>kenneth</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>brian</t>
-  </si>
-  <si>
-    <t>george</t>
-  </si>
-  <si>
-    <t>timothy</t>
+    <t>controllerfeb12pipeline1@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb12pipeline1@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb12pipeline1@fpk12.com</t>
+  </si>
+  <si>
+    <t>joshuas</t>
+  </si>
+  <si>
+    <t>kenneths</t>
+  </si>
+  <si>
+    <t>kevins</t>
+  </si>
+  <si>
+    <t>brians</t>
+  </si>
+  <si>
+    <t>georges</t>
+  </si>
+  <si>
+    <t>timothys</t>
+  </si>
+  <si>
+    <t>LOC feb12</t>
   </si>
 </sst>
 </file>
@@ -452,12 +446,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
@@ -491,13 +485,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -505,36 +499,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -562,7 +556,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,13 +595,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -615,36 +609,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>LOC feb12</t>
+  </si>
+  <si>
+    <t>controllerfeb12pipeline2@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb12pipeline2@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb12pipeline2@fpk12.com</t>
+  </si>
+  <si>
+    <t>joshuahs</t>
+  </si>
+  <si>
+    <t>kevinhs</t>
+  </si>
+  <si>
+    <t>kennethhs</t>
+  </si>
+  <si>
+    <t>brianhs</t>
+  </si>
+  <si>
+    <t>georgehs</t>
+  </si>
+  <si>
+    <t>timothyhs</t>
+  </si>
+  <si>
+    <t>LOC feb 12</t>
   </si>
 </sst>
 </file>
@@ -445,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -555,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,13 +625,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -609,36 +639,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,64 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfeb12pipeline1@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb12pipeline1@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb12pipeline1@fpk12.com</t>
-  </si>
-  <si>
-    <t>joshuas</t>
-  </si>
-  <si>
-    <t>kenneths</t>
-  </si>
-  <si>
-    <t>kevins</t>
-  </si>
-  <si>
-    <t>brians</t>
-  </si>
-  <si>
-    <t>georges</t>
-  </si>
-  <si>
-    <t>timothys</t>
-  </si>
-  <si>
-    <t>LOC feb12</t>
-  </si>
-  <si>
-    <t>controllerfeb12pipeline2@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb12pipeline2@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb12pipeline2@fpk12.com</t>
-  </si>
-  <si>
-    <t>joshuahs</t>
-  </si>
-  <si>
-    <t>kevinhs</t>
-  </si>
-  <si>
-    <t>kennethhs</t>
-  </si>
-  <si>
-    <t>brianhs</t>
-  </si>
-  <si>
-    <t>georgehs</t>
-  </si>
-  <si>
-    <t>timothyhs</t>
-  </si>
-  <si>
-    <t>LOC feb 12</t>
+    <t>controllerfeb13pipeline2@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb13pipeline2@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb13pipeline2@fpk12.com</t>
+  </si>
+  <si>
+    <t>joshuahsr</t>
+  </si>
+  <si>
+    <t>kennethhsr</t>
+  </si>
+  <si>
+    <t>kevinhsr</t>
+  </si>
+  <si>
+    <t>brianhsr</t>
+  </si>
+  <si>
+    <t>georgehsr</t>
+  </si>
+  <si>
+    <t>timothyhsr</t>
+  </si>
+  <si>
+    <t>LOC feb 13</t>
   </si>
 </sst>
 </file>
@@ -475,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,13 +595,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -639,36 +609,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -72,7 +72,16 @@
     <t>timothyhsr</t>
   </si>
   <si>
-    <t>LOC feb 13</t>
+    <t>LOC feb13</t>
+  </si>
+  <si>
+    <t>controllerfeb13pipeline3@fpk12.com</t>
+  </si>
+  <si>
+    <t>joshuar</t>
+  </si>
+  <si>
+    <t>kennetr</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,6 +150,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,7 +459,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,13 +498,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -510,7 +523,7 @@
       <c r="D3" s="4">
         <v>9494</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -527,7 +540,7 @@
       <c r="D4" s="4">
         <v>8897</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4">
@@ -556,7 +569,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +633,7 @@
       <c r="D3" s="4">
         <v>9494</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -637,7 +650,7 @@
       <c r="D4" s="4">
         <v>8897</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4">

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Email</t>
   </si>
@@ -45,9 +45,6 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfeb13pipeline2@fpk12.com</t>
-  </si>
-  <si>
     <t>proctorfeb13pipeline2@fpk12.com</t>
   </si>
   <si>
@@ -82,6 +79,15 @@
   </si>
   <si>
     <t>kennetr</t>
+  </si>
+  <si>
+    <t>controllerfeb13pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb13pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb13pipeline01@fpk12.com</t>
   </si>
 </sst>
 </file>
@@ -458,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,13 +504,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -512,36 +518,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,13 +614,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -622,36 +628,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,49 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>proctorfeb13pipeline2@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb13pipeline2@fpk12.com</t>
-  </si>
-  <si>
-    <t>joshuahsr</t>
-  </si>
-  <si>
-    <t>kennethhsr</t>
-  </si>
-  <si>
-    <t>kevinhsr</t>
-  </si>
-  <si>
-    <t>brianhsr</t>
-  </si>
-  <si>
-    <t>georgehsr</t>
-  </si>
-  <si>
-    <t>timothyhsr</t>
-  </si>
-  <si>
-    <t>LOC feb13</t>
-  </si>
-  <si>
-    <t>controllerfeb13pipeline3@fpk12.com</t>
-  </si>
-  <si>
-    <t>joshuar</t>
-  </si>
-  <si>
-    <t>kennetr</t>
-  </si>
-  <si>
-    <t>controllerfeb13pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb13pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb13pipeline01@fpk12.com</t>
+    <t>controllerfeb13pipeline13@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb13pipeline13@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb13pipeline13@fpk12.com</t>
+  </si>
+  <si>
+    <t>joshuara</t>
+  </si>
+  <si>
+    <t>kennetra</t>
+  </si>
+  <si>
+    <t>kevinhsra</t>
+  </si>
+  <si>
+    <t>brianhsra</t>
+  </si>
+  <si>
+    <t>timothyhsra</t>
+  </si>
+  <si>
+    <t>georgehsra</t>
+  </si>
+  <si>
+    <t>LOC feb14</t>
   </si>
 </sst>
 </file>
@@ -146,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -156,8 +141,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -465,7 +448,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,13 +487,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -518,27 +501,27 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
@@ -546,8 +529,8 @@
       <c r="D4" s="4">
         <v>8897</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -575,7 +558,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,60 +595,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8">
+        <v>9494</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4">
-        <v>6644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4">
-        <v>9494</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>8897</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8">
         <v>2023</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="8">
         <v>28</v>
       </c>
     </row>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -45,34 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfeb13pipeline13@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb13pipeline13@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb13pipeline13@fpk12.com</t>
-  </si>
-  <si>
-    <t>joshuara</t>
-  </si>
-  <si>
-    <t>kennetra</t>
-  </si>
-  <si>
-    <t>kevinhsra</t>
-  </si>
-  <si>
-    <t>brianhsra</t>
-  </si>
-  <si>
-    <t>timothyhsra</t>
-  </si>
-  <si>
-    <t>georgehsra</t>
-  </si>
-  <si>
     <t>LOC feb14</t>
+  </si>
+  <si>
+    <t>controllerfeb14pipeline14@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb14pipeline14@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb14pipeline14@fpk12.com</t>
+  </si>
+  <si>
+    <t>jhoshuara</t>
+  </si>
+  <si>
+    <t>khevinhsra</t>
+  </si>
+  <si>
+    <t>geohrgehsra</t>
+  </si>
+  <si>
+    <t>khennetr</t>
+  </si>
+  <si>
+    <t>brihansr</t>
+  </si>
+  <si>
+    <t>timhothyhsr</t>
   </si>
 </sst>
 </file>
@@ -131,17 +131,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -447,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -485,60 +483,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9494</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>6644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
-        <v>9494</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>8897</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
         <v>2023</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>28</v>
       </c>
     </row>
@@ -557,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -595,60 +593,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9494</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8">
-        <v>6644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8">
-        <v>9494</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>8897</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
         <v>2023</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>28</v>
       </c>
     </row>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -45,41 +45,41 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>LOC feb14</t>
-  </si>
-  <si>
-    <t>controllerfeb14pipeline14@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb14pipeline14@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb14pipeline14@fpk12.com</t>
-  </si>
-  <si>
-    <t>jhoshuara</t>
-  </si>
-  <si>
-    <t>khevinhsra</t>
-  </si>
-  <si>
-    <t>geohrgehsra</t>
-  </si>
-  <si>
-    <t>khennetr</t>
-  </si>
-  <si>
-    <t>brihansr</t>
-  </si>
-  <si>
-    <t>timhothyhsr</t>
+    <t>starlette</t>
+  </si>
+  <si>
+    <t>snowdrop</t>
+  </si>
+  <si>
+    <t>kahlani</t>
+  </si>
+  <si>
+    <t>elodie</t>
+  </si>
+  <si>
+    <t>lara</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>controllerfeb14pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb14pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb14pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>LOC feb02 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,18 +96,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0B3F51"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,16 +123,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -483,60 +474,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9494</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6">
-        <v>6644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6">
-        <v>9494</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4">
+        <v>8897</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6">
-        <v>8897</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>2023</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>28</v>
       </c>
     </row>
@@ -555,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -593,60 +584,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9494</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6">
-        <v>6644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6">
-        <v>9494</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4">
+        <v>8897</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6">
-        <v>8897</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>2023</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>28</v>
       </c>
     </row>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -45,34 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>starlette</t>
-  </si>
-  <si>
-    <t>snowdrop</t>
-  </si>
-  <si>
-    <t>kahlani</t>
-  </si>
-  <si>
-    <t>elodie</t>
-  </si>
-  <si>
-    <t>lara</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>controllerfeb14pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb14pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb14pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>LOC feb02 14</t>
+    <t>starletthes</t>
+  </si>
+  <si>
+    <t>kahlahnis</t>
+  </si>
+  <si>
+    <t>shnowdrops</t>
+  </si>
+  <si>
+    <t>elhodies</t>
+  </si>
+  <si>
+    <t>larahs</t>
+  </si>
+  <si>
+    <t>luxuhrys</t>
+  </si>
+  <si>
+    <t>LOC feb 15</t>
+  </si>
+  <si>
+    <t>controllerfeb15pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb15pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb15pipeline02@fpk12.com</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -437,7 +437,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,13 +476,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -490,10 +490,10 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -502,12 +502,12 @@
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -519,7 +519,7 @@
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -547,7 +547,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D13" activeCellId="1" sqref="B2:C4 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,13 +586,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -600,10 +600,10 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -612,12 +612,12 @@
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -629,7 +629,7 @@
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" activeCellId="1" sqref="B2:C4 D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,9 +643,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>examtakerfeb15pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>controllerfeb22pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb22pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb22pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>LOC feb 22</t>
+  </si>
+  <si>
+    <t>stark</t>
+  </si>
+  <si>
+    <t>kenin</t>
+  </si>
+  <si>
+    <t>shroves</t>
+  </si>
+  <si>
+    <t>korley</t>
+  </si>
+  <si>
+    <t>levies</t>
+  </si>
+  <si>
+    <t>laroes</t>
   </si>
 </sst>
 </file>
@@ -547,7 +577,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,13 +616,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -600,36 +630,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Email</t>
   </si>
@@ -45,64 +45,46 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>starletthes</t>
-  </si>
-  <si>
-    <t>kahlahnis</t>
-  </si>
-  <si>
-    <t>shnowdrops</t>
-  </si>
-  <si>
-    <t>elhodies</t>
-  </si>
-  <si>
-    <t>larahs</t>
-  </si>
-  <si>
-    <t>luxuhrys</t>
-  </si>
-  <si>
-    <t>LOC feb 15</t>
-  </si>
-  <si>
-    <t>controllerfeb15pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb15pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb15pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>controllerfeb22pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb22pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb22pipeline01@fpk12.com</t>
-  </si>
-  <si>
     <t>LOC feb 22</t>
   </si>
   <si>
-    <t>stark</t>
-  </si>
-  <si>
-    <t>kenin</t>
-  </si>
-  <si>
-    <t>shroves</t>
-  </si>
-  <si>
-    <t>korley</t>
-  </si>
-  <si>
-    <t>levies</t>
-  </si>
-  <si>
-    <t>laroes</t>
+    <t>starks</t>
+  </si>
+  <si>
+    <t>kenins</t>
+  </si>
+  <si>
+    <t>shrovess</t>
+  </si>
+  <si>
+    <t>korleys</t>
+  </si>
+  <si>
+    <t>leviess</t>
+  </si>
+  <si>
+    <t>laroess</t>
+  </si>
+  <si>
+    <t>controllerfeb22pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb22pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb22pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>LOC feb 26</t>
+  </si>
+  <si>
+    <t>controllerfeb26pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb26pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb26pipeline02@fpk12.com</t>
   </si>
 </sst>
 </file>
@@ -466,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" activeCellId="1" sqref="A12 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,13 +488,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -520,36 +502,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -563,9 +545,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -576,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,13 +598,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -630,36 +612,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,46 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>LOC feb 22</t>
-  </si>
-  <si>
-    <t>starks</t>
-  </si>
-  <si>
-    <t>kenins</t>
-  </si>
-  <si>
-    <t>shrovess</t>
-  </si>
-  <si>
-    <t>korleys</t>
-  </si>
-  <si>
-    <t>leviess</t>
-  </si>
-  <si>
-    <t>laroess</t>
-  </si>
-  <si>
-    <t>controllerfeb22pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb22pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb22pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>LOC feb 26</t>
-  </si>
-  <si>
-    <t>controllerfeb26pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb26pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb26pipeline02@fpk12.com</t>
+    <t>controllerfeb27pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb27pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb27pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>shtarks</t>
+  </si>
+  <si>
+    <t>khenins</t>
+  </si>
+  <si>
+    <t>shrhovess</t>
+  </si>
+  <si>
+    <t>khorleys</t>
+  </si>
+  <si>
+    <t>lehviess</t>
+  </si>
+  <si>
+    <t>lahroess</t>
+  </si>
+  <si>
+    <t>LOC feb 27</t>
   </si>
 </sst>
 </file>
@@ -449,7 +437,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" activeCellId="1" sqref="A12 D17"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,13 +476,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -502,36 +490,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -598,13 +586,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -612,36 +600,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>LOC feb 27</t>
+  </si>
+  <si>
+    <t>LOC feb02 27</t>
+  </si>
+  <si>
+    <t>khenins02</t>
+  </si>
+  <si>
+    <t>khorleys02</t>
+  </si>
+  <si>
+    <t>lahroess02</t>
+  </si>
+  <si>
+    <t>shtarks02</t>
+  </si>
+  <si>
+    <t>shrhovess02</t>
+  </si>
+  <si>
+    <t>lehviess02</t>
+  </si>
+  <si>
+    <t>controllerfeb27pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb27pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb27pipeline03@fpk12.com</t>
   </si>
 </sst>
 </file>
@@ -437,7 +467,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,13 +506,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -490,36 +520,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,64 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfeb27pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb27pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb27pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>shtarks</t>
-  </si>
-  <si>
-    <t>khenins</t>
-  </si>
-  <si>
-    <t>shrhovess</t>
-  </si>
-  <si>
-    <t>khorleys</t>
-  </si>
-  <si>
-    <t>lehviess</t>
-  </si>
-  <si>
-    <t>lahroess</t>
-  </si>
-  <si>
-    <t>LOC feb 27</t>
-  </si>
-  <si>
-    <t>LOC feb02 27</t>
-  </si>
-  <si>
-    <t>khenins02</t>
-  </si>
-  <si>
-    <t>khorleys02</t>
-  </si>
-  <si>
-    <t>lahroess02</t>
-  </si>
-  <si>
-    <t>shtarks02</t>
-  </si>
-  <si>
-    <t>shrhovess02</t>
-  </si>
-  <si>
-    <t>lehviess02</t>
-  </si>
-  <si>
-    <t>controllerfeb27pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb27pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb27pipeline03@fpk12.com</t>
+    <t>controllerfeb28pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb28pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb28pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>shtarks03</t>
+  </si>
+  <si>
+    <t>shrhovess03</t>
+  </si>
+  <si>
+    <t>lehviess03</t>
+  </si>
+  <si>
+    <t>khenins03</t>
+  </si>
+  <si>
+    <t>khorleys03</t>
+  </si>
+  <si>
+    <t>lahroess03</t>
+  </si>
+  <si>
+    <t>LOC feb 28</t>
   </si>
 </sst>
 </file>
@@ -466,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,13 +476,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -520,36 +490,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -576,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -622,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -633,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
@@ -650,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Email</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>LOC feb 28</t>
+  </si>
+  <si>
+    <t>shtarks04</t>
+  </si>
+  <si>
+    <t>khenins04</t>
+  </si>
+  <si>
+    <t>shrhovess04</t>
+  </si>
+  <si>
+    <t>khorleys04</t>
+  </si>
+  <si>
+    <t>controllerfeb28pipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb28pipeline04@fpk12.com</t>
   </si>
 </sst>
 </file>
@@ -547,7 +565,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,13 +604,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -600,13 +618,13 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Email</t>
   </si>
@@ -75,22 +75,31 @@
     <t>LOC feb 28</t>
   </si>
   <si>
-    <t>shtarks04</t>
-  </si>
-  <si>
-    <t>khenins04</t>
-  </si>
-  <si>
-    <t>shrhovess04</t>
-  </si>
-  <si>
-    <t>khorleys04</t>
-  </si>
-  <si>
-    <t>controllerfeb28pipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb28pipeline04@fpk12.com</t>
+    <t>controllerfeb28pipeline05@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb28pipeline05@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb28pipeline05@fpk12.com</t>
+  </si>
+  <si>
+    <t>shtarks05</t>
+  </si>
+  <si>
+    <t>shrhovess05</t>
+  </si>
+  <si>
+    <t>lehviess05</t>
+  </si>
+  <si>
+    <t>khenins05</t>
+  </si>
+  <si>
+    <t>khorleys05</t>
+  </si>
+  <si>
+    <t>lahroess05</t>
   </si>
 </sst>
 </file>
@@ -565,7 +574,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,13 +613,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -618,13 +627,13 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
@@ -635,13 +644,13 @@
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -45,33 +45,6 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllerfeb28pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb28pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb28pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>shtarks03</t>
-  </si>
-  <si>
-    <t>shrhovess03</t>
-  </si>
-  <si>
-    <t>lehviess03</t>
-  </si>
-  <si>
-    <t>khenins03</t>
-  </si>
-  <si>
-    <t>khorleys03</t>
-  </si>
-  <si>
-    <t>lahroess03</t>
-  </si>
-  <si>
     <t>LOC feb 28</t>
   </si>
   <si>
@@ -100,6 +73,33 @@
   </si>
   <si>
     <t>lahroess05</t>
+  </si>
+  <si>
+    <t>controllerfeb28pipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctorfeb28pipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakerfeb28pipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>shtarks04</t>
+  </si>
+  <si>
+    <t>shrhovess04</t>
+  </si>
+  <si>
+    <t>lehviess04</t>
+  </si>
+  <si>
+    <t>khenins04</t>
+  </si>
+  <si>
+    <t>khorleys04</t>
+  </si>
+  <si>
+    <t>lahroess04</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,13 +503,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -517,36 +517,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
@@ -613,13 +613,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -627,36 +627,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -45,61 +45,43 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>LOC feb 28</t>
-  </si>
-  <si>
-    <t>controllerfeb28pipeline05@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb28pipeline05@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb28pipeline05@fpk12.com</t>
-  </si>
-  <si>
-    <t>shtarks05</t>
-  </si>
-  <si>
-    <t>shrhovess05</t>
-  </si>
-  <si>
-    <t>lehviess05</t>
-  </si>
-  <si>
-    <t>khenins05</t>
-  </si>
-  <si>
-    <t>khorleys05</t>
-  </si>
-  <si>
-    <t>lahroess05</t>
-  </si>
-  <si>
-    <t>controllerfeb28pipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctorfeb28pipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakerfeb28pipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>shtarks04</t>
-  </si>
-  <si>
-    <t>shrhovess04</t>
-  </si>
-  <si>
-    <t>lehviess04</t>
-  </si>
-  <si>
-    <t>khenins04</t>
-  </si>
-  <si>
-    <t>khorleys04</t>
-  </si>
-  <si>
-    <t>lahroess04</t>
+    <t>controllermar01pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctormar01pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakermar01pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>mason</t>
+  </si>
+  <si>
+    <t>jackson</t>
+  </si>
+  <si>
+    <t>harper</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>avery</t>
+  </si>
+  <si>
+    <t>wyatt</t>
+  </si>
+  <si>
+    <t>LOC mar 01</t>
+  </si>
+  <si>
+    <t>controllermar01pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>masons</t>
+  </si>
+  <si>
+    <t>harpers</t>
   </si>
 </sst>
 </file>
@@ -150,15 +132,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,7 +447,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,10 +489,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -517,36 +500,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -574,7 +557,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,13 +596,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -627,36 +610,36 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,43 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllermar01pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctormar01pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakermar01pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>mason</t>
-  </si>
-  <si>
-    <t>jackson</t>
-  </si>
-  <si>
-    <t>harper</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>avery</t>
-  </si>
-  <si>
-    <t>wyatt</t>
-  </si>
-  <si>
-    <t>LOC mar 01</t>
-  </si>
-  <si>
-    <t>controllermar01pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>masons</t>
-  </si>
-  <si>
-    <t>harpers</t>
+    <t>controllermar04pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctormar04pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakermar04pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>masons02</t>
+  </si>
+  <si>
+    <t>harpers02</t>
+  </si>
+  <si>
+    <t>jackson02</t>
+  </si>
+  <si>
+    <t>jack02</t>
+  </si>
+  <si>
+    <t>avery02</t>
+  </si>
+  <si>
+    <t>wyatt02</t>
+  </si>
+  <si>
+    <t>LOC mar 4</t>
   </si>
 </sst>
 </file>
@@ -446,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,13 +477,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -503,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -556,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -613,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -45,34 +45,37 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllermar04pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctormar04pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakermar04pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>masons02</t>
-  </si>
-  <si>
-    <t>harpers02</t>
-  </si>
-  <si>
-    <t>jackson02</t>
-  </si>
-  <si>
-    <t>jack02</t>
-  </si>
-  <si>
-    <t>avery02</t>
-  </si>
-  <si>
-    <t>wyatt02</t>
-  </si>
-  <si>
-    <t>LOC mar 4</t>
+    <t>controllermar04pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctormar04pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakermar04pipeline03@fpk12.com</t>
+  </si>
+  <si>
+    <t>masons03</t>
+  </si>
+  <si>
+    <t>jackson03</t>
+  </si>
+  <si>
+    <t>avery03</t>
+  </si>
+  <si>
+    <t>harpers03</t>
+  </si>
+  <si>
+    <t>jack03</t>
+  </si>
+  <si>
+    <t>wyatt03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC mar </t>
+  </si>
+  <si>
+    <t>LOC mar</t>
   </si>
 </sst>
 </file>
@@ -437,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -494,16 +497,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -511,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -520,7 +523,7 @@
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -547,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -593,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -604,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
@@ -621,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -72,10 +72,16 @@
     <t>wyatt03</t>
   </si>
   <si>
-    <t xml:space="preserve">LOC mar </t>
-  </si>
-  <si>
     <t>LOC mar</t>
+  </si>
+  <si>
+    <t>controllermar04pipeline04@fpk12.com</t>
+  </si>
+  <si>
+    <t>masons04</t>
+  </si>
+  <si>
+    <t>harpers04</t>
   </si>
 </sst>
 </file>
@@ -440,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +512,7 @@
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,7 +529,7 @@
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -550,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,13 +596,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -45,43 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllermar04pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctormar04pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakermar04pipeline03@fpk12.com</t>
-  </si>
-  <si>
-    <t>masons03</t>
-  </si>
-  <si>
-    <t>jackson03</t>
-  </si>
-  <si>
-    <t>avery03</t>
-  </si>
-  <si>
-    <t>harpers03</t>
-  </si>
-  <si>
-    <t>jack03</t>
-  </si>
-  <si>
-    <t>wyatt03</t>
-  </si>
-  <si>
-    <t>LOC mar</t>
-  </si>
-  <si>
-    <t>controllermar04pipeline04@fpk12.com</t>
-  </si>
-  <si>
-    <t>masons04</t>
-  </si>
-  <si>
-    <t>harpers04</t>
+    <t>controllermar05pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctormar05pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakermar05pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>masonsion</t>
+  </si>
+  <si>
+    <t>harpersion</t>
+  </si>
+  <si>
+    <t>jackision</t>
+  </si>
+  <si>
+    <t>averyion</t>
+  </si>
+  <si>
+    <t>wyattion</t>
+  </si>
+  <si>
+    <t>LOC mar 05</t>
+  </si>
+  <si>
+    <t>jacksonion</t>
   </si>
 </sst>
 </file>
@@ -447,7 +438,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +483,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -503,16 +494,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -520,16 +511,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -557,7 +548,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,13 +587,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -613,16 +604,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -630,16 +621,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -45,34 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllermar05pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctormar05pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakermar05pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>masonsion</t>
-  </si>
-  <si>
-    <t>harpersion</t>
-  </si>
-  <si>
-    <t>jackision</t>
-  </si>
-  <si>
-    <t>averyion</t>
-  </si>
-  <si>
-    <t>wyattion</t>
-  </si>
-  <si>
-    <t>LOC mar 05</t>
-  </si>
-  <si>
-    <t>jacksonion</t>
+    <t>controllermar06pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctormar06pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakermar06pipeline@fpk12.com</t>
+  </si>
+  <si>
+    <t>masonsions</t>
+  </si>
+  <si>
+    <t>harpersions</t>
+  </si>
+  <si>
+    <t>jacksonions</t>
+  </si>
+  <si>
+    <t>jackisions</t>
+  </si>
+  <si>
+    <t>averyions</t>
+  </si>
+  <si>
+    <t>wyattions</t>
+  </si>
+  <si>
+    <t>LOC mar 06</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -133,6 +133,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,16 +496,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -511,16 +513,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -547,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -604,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -621,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -45,34 +45,34 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>controllermar06pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctormar06pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakermar06pipeline@fpk12.com</t>
-  </si>
-  <si>
-    <t>masonsions</t>
-  </si>
-  <si>
-    <t>harpersions</t>
-  </si>
-  <si>
-    <t>jacksonions</t>
-  </si>
-  <si>
-    <t>jackisions</t>
-  </si>
-  <si>
-    <t>averyions</t>
-  </si>
-  <si>
-    <t>wyattions</t>
-  </si>
-  <si>
     <t>LOC mar 06</t>
+  </si>
+  <si>
+    <t>controllermar06pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctormar06pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakermar06pipeline01@fpk12.com</t>
+  </si>
+  <si>
+    <t>masonsions01</t>
+  </si>
+  <si>
+    <t>harpersions01</t>
+  </si>
+  <si>
+    <t>jackisions01</t>
+  </si>
+  <si>
+    <t>jacksonions01</t>
+  </si>
+  <si>
+    <t>averyions01</t>
+  </si>
+  <si>
+    <t>wyattions01</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,13 +479,13 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4">
         <v>6644</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -505,24 +505,24 @@
         <v>9494</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
         <v>8897</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -587,60 +587,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>9494</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>8897</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8">
         <v>2023</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="8">
         <v>28</v>
       </c>
     </row>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -48,31 +48,31 @@
     <t>LOC mar 06</t>
   </si>
   <si>
-    <t>controllermar06pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctormar06pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakermar06pipeline01@fpk12.com</t>
-  </si>
-  <si>
-    <t>masonsions01</t>
-  </si>
-  <si>
-    <t>harpersions01</t>
-  </si>
-  <si>
-    <t>jackisions01</t>
-  </si>
-  <si>
-    <t>jacksonions01</t>
-  </si>
-  <si>
-    <t>averyions01</t>
-  </si>
-  <si>
-    <t>wyattions01</t>
+    <t>controllermar06pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctormar06pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakermar06pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>masonsions02</t>
+  </si>
+  <si>
+    <t>jacksonions02</t>
+  </si>
+  <si>
+    <t>averyions02</t>
+  </si>
+  <si>
+    <t>harpersions02</t>
+  </si>
+  <si>
+    <t>wyattions02</t>
+  </si>
+  <si>
+    <t>jackisions02</t>
   </si>
 </sst>
 </file>
@@ -123,17 +123,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -439,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -477,60 +475,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6">
         <v>9494</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>8897</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>2023</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>28</v>
       </c>
     </row>
@@ -549,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -557,7 +555,7 @@
   <cols>
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,60 +585,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6">
         <v>9494</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>8897</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>2023</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>28</v>
       </c>
     </row>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Email</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>jackisions02</t>
+  </si>
+  <si>
+    <t>controllermay02pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>proctormay02pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>examtakermay02pipeline02@fpk12.com</t>
+  </si>
+  <si>
+    <t>masonsions0502</t>
+  </si>
+  <si>
+    <t>jacksonions0502</t>
+  </si>
+  <si>
+    <t>averyions0502</t>
+  </si>
+  <si>
+    <t>harpersions0502</t>
+  </si>
+  <si>
+    <t>jackisions0502</t>
+  </si>
+  <si>
+    <t>wyattions0502</t>
+  </si>
+  <si>
+    <t>LOC mar 0502</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -435,17 +468,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,13 +510,13 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6">
         <v>6644</v>
@@ -491,36 +524,36 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6">
         <v>9494</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6">
         <v>8897</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6">
         <v>2023</v>
@@ -530,6 +563,11 @@
       </c>
       <c r="H4" s="6">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D46B2C-E2D4-47D0-8246-574159B468B5}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -75,44 +81,41 @@
     <t>jackisions02</t>
   </si>
   <si>
-    <t>controllermay02pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctormay02pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakermay02pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>masonsions0502</t>
-  </si>
-  <si>
-    <t>jacksonions0502</t>
-  </si>
-  <si>
-    <t>averyions0502</t>
-  </si>
-  <si>
-    <t>harpersions0502</t>
-  </si>
-  <si>
-    <t>jackisions0502</t>
-  </si>
-  <si>
-    <t>wyattions0502</t>
-  </si>
-  <si>
-    <t>LOC mar 0502</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>controller03sep20@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctor03sep20@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtaker03sep20@yopmail.com</t>
+  </si>
+  <si>
+    <t>amelia03</t>
+  </si>
+  <si>
+    <t>ava03</t>
+  </si>
+  <si>
+    <t>willow03</t>
+  </si>
+  <si>
+    <t>olivia03</t>
+  </si>
+  <si>
+    <t>ivy03</t>
+  </si>
+  <si>
+    <t>florence03</t>
+  </si>
+  <si>
+    <t>Cambridge02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +134,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -156,16 +165,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -177,14 +184,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -294,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,86 +509,81 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>9494</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>8897</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>2023</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4177ACAB-5562-469F-BCC2-01E3D5FDC39C}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{15AAABA0-E899-4C40-86A4-735DA0341648}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{A726094B-6C17-47DA-AC8D-2C04E23AA9D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -582,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -598,93 +607,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>6644</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>9494</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>8897</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>2023</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -692,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D46B2C-E2D4-47D0-8246-574159B468B5}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05510C20-20F0-4020-814E-1D47DD1F9F46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Email</t>
   </si>
@@ -51,45 +51,6 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>LOC mar 06</t>
-  </si>
-  <si>
-    <t>controllermar06pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>proctormar06pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>examtakermar06pipeline02@fpk12.com</t>
-  </si>
-  <si>
-    <t>masonsions02</t>
-  </si>
-  <si>
-    <t>jacksonions02</t>
-  </si>
-  <si>
-    <t>averyions02</t>
-  </si>
-  <si>
-    <t>harpersions02</t>
-  </si>
-  <si>
-    <t>wyattions02</t>
-  </si>
-  <si>
-    <t>jackisions02</t>
-  </si>
-  <si>
-    <t>controller03sep20@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctor03sep20@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtaker03sep20@yopmail.com</t>
-  </si>
-  <si>
     <t>amelia03</t>
   </si>
   <si>
@@ -99,16 +60,46 @@
     <t>willow03</t>
   </si>
   <si>
-    <t>olivia03</t>
-  </si>
-  <si>
-    <t>ivy03</t>
-  </si>
-  <si>
-    <t>florence03</t>
-  </si>
-  <si>
-    <t>Cambridge02</t>
+    <t>controller03sep21@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctor03sep21@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtaker03sep21@yopmail.com</t>
+  </si>
+  <si>
+    <t>olivia04</t>
+  </si>
+  <si>
+    <t>ivy04</t>
+  </si>
+  <si>
+    <t>florence04</t>
+  </si>
+  <si>
+    <t>Cambridge12</t>
+  </si>
+  <si>
+    <t>controller03oct21@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctor03oct21@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtaker03oct21@yopmail.com</t>
+  </si>
+  <si>
+    <t>olivia05</t>
+  </si>
+  <si>
+    <t>ivy05</t>
+  </si>
+  <si>
+    <t>florence05</t>
+  </si>
+  <si>
+    <t>Cambridge13</t>
   </si>
 </sst>
 </file>
@@ -484,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,13 +515,13 @@
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>6644</v>
@@ -538,36 +529,36 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -594,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,13 +625,13 @@
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>6644</v>
@@ -648,36 +639,36 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>9494</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>8897</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -691,9 +682,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{743B1C62-1DA9-428A-ACA6-851DACA367CA}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C267A6FC-81C8-48DE-A060-10EFEA646D3F}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{3A60F829-C55C-44E0-90C3-24CB36DED0E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05510C20-20F0-4020-814E-1D47DD1F9F46}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D20383D-B70C-43B3-8775-EB1FC4D68C57}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
     <sheet name="PROD" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LMSProd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Email</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Cambridge12</t>
   </si>
   <si>
-    <t>controller03oct21@yopmail.com</t>
-  </si>
-  <si>
     <t>proctor03oct21@yopmail.com</t>
   </si>
   <si>
@@ -100,6 +97,39 @@
   </si>
   <si>
     <t>Cambridge13</t>
+  </si>
+  <si>
+    <t>controller03oct212@yopmail.com</t>
+  </si>
+  <si>
+    <t>amelia04</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>examtakeruser06@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtaker06</t>
+  </si>
+  <si>
+    <t>Canada 01</t>
+  </si>
+  <si>
+    <t>proctorexam006@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctor006</t>
+  </si>
+  <si>
+    <t>controlleradmin006@yopmail.com</t>
+  </si>
+  <si>
+    <t>examadmin06</t>
   </si>
 </sst>
 </file>
@@ -156,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -164,6 +194,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,13 +667,13 @@
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>6644</v>
@@ -639,36 +681,36 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>9494</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>8897</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -693,12 +735,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>9494</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>8897</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E239F8D5-5A5B-41FD-9B75-33DFD9650E46}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D57C0102-939C-46FC-A041-EB008D249E83}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{FEEF0611-5B30-448E-8EC0-5CDAD62244B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D20383D-B70C-43B3-8775-EB1FC4D68C57}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA44239-2A6F-4C2B-85B0-96AB8D8289E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>Email</t>
   </si>
@@ -51,92 +51,101 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>amelia03</t>
-  </si>
-  <si>
-    <t>ava03</t>
-  </si>
-  <si>
-    <t>willow03</t>
-  </si>
-  <si>
-    <t>controller03sep21@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctor03sep21@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtaker03sep21@yopmail.com</t>
-  </si>
-  <si>
-    <t>olivia04</t>
-  </si>
-  <si>
-    <t>ivy04</t>
-  </si>
-  <si>
-    <t>florence04</t>
-  </si>
-  <si>
-    <t>Cambridge12</t>
-  </si>
-  <si>
-    <t>proctor03oct21@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtaker03oct21@yopmail.com</t>
-  </si>
-  <si>
-    <t>olivia05</t>
-  </si>
-  <si>
-    <t>ivy05</t>
-  </si>
-  <si>
-    <t>florence05</t>
-  </si>
-  <si>
-    <t>Cambridge13</t>
-  </si>
-  <si>
-    <t>controller03oct212@yopmail.com</t>
-  </si>
-  <si>
-    <t>amelia04</t>
-  </si>
-  <si>
     <t>controller</t>
   </si>
   <si>
     <t>exam</t>
   </si>
   <si>
-    <t>examtakeruser06@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtaker06</t>
-  </si>
-  <si>
-    <t>Canada 01</t>
-  </si>
-  <si>
-    <t>proctorexam006@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctor006</t>
-  </si>
-  <si>
-    <t>controlleradmin006@yopmail.com</t>
-  </si>
-  <si>
-    <t>examadmin06</t>
+    <t>AddressField</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>EditLocationName</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Tenant ID</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>@Abcd1234</t>
+  </si>
+  <si>
+    <t>FPController</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>controller11</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>controller02</t>
+  </si>
+  <si>
+    <t>controlleradmin010@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctorexam010@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtakeruser010@yopmail.com</t>
+  </si>
+  <si>
+    <t>examadmin010</t>
+  </si>
+  <si>
+    <t>proctor010</t>
+  </si>
+  <si>
+    <t>examtaker010</t>
+  </si>
+  <si>
+    <t>Canada 05</t>
+  </si>
+  <si>
+    <t>controlleradmin011@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctorexam011@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtakeruser011@yopmail.com</t>
+  </si>
+  <si>
+    <t>examadmin011</t>
+  </si>
+  <si>
+    <t>proctor011</t>
+  </si>
+  <si>
+    <t>examtaker011</t>
+  </si>
+  <si>
+    <t>Canada 06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,16 +173,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -181,31 +209,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,97 +594,182 @@
     <col min="1" max="1" width="35.21875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12">
         <v>6644</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12">
         <v>9494</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+      <c r="F5" s="12">
         <v>8897</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
+      <c r="G5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="12">
         <v>2023</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="J5" s="12">
         <v>28</v>
       </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4177ACAB-5562-469F-BCC2-01E3D5FDC39C}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{15AAABA0-E899-4C40-86A4-735DA0341648}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{A726094B-6C17-47DA-AC8D-2C04E23AA9D0}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{11421ABC-5116-4C14-8172-F98F81C906B8}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{73C1C60E-DC44-4198-98E6-E8948B21D9CF}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A0984B4D-8DF4-4C04-9A31-61A1FF0B325A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -625,108 +778,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="L2" activeCellId="1" sqref="K2 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7">
+        <v>6644</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
-        <v>6644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3">
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7">
         <v>9494</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
+      <c r="G4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7">
         <v>8897</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
+      <c r="G5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7">
         <v>2023</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="J5" s="7">
         <v>28</v>
       </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{743B1C62-1DA9-428A-ACA6-851DACA367CA}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{C267A6FC-81C8-48DE-A060-10EFEA646D3F}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{3A60F829-C55C-44E0-90C3-24CB36DED0E4}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{F6F98289-796C-48FF-B367-E30C8806E202}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{78710ABF-A693-409A-BC74-98C5E3F0AA48}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A84FB307-F801-4AE4-97A4-B58E6B232DCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -735,109 +964,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8">
+        <v>243</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8">
+        <v>243</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7">
+        <v>6644</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8">
+        <v>243</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7">
+        <v>9494</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>6644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8">
+        <v>243</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7">
+        <v>8897</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2023</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="7">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>9494</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>8897</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>2023</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>28</v>
-      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E239F8D5-5A5B-41FD-9B75-33DFD9650E46}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D57C0102-939C-46FC-A041-EB008D249E83}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{FEEF0611-5B30-448E-8EC0-5CDAD62244B1}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E239F8D5-5A5B-41FD-9B75-33DFD9650E46}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{D57C0102-939C-46FC-A041-EB008D249E83}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{FEEF0611-5B30-448E-8EC0-5CDAD62244B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA44239-2A6F-4C2B-85B0-96AB8D8289E4}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="11_A05B5BEDE33281944C7DA7DFFAB0705BC76CDDD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BD92F2-978F-4C58-A708-C1687881954A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,25 +120,25 @@
     <t>Canada 05</t>
   </si>
   <si>
-    <t>controlleradmin011@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctorexam011@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtakeruser011@yopmail.com</t>
-  </si>
-  <si>
-    <t>examadmin011</t>
-  </si>
-  <si>
-    <t>proctor011</t>
-  </si>
-  <si>
-    <t>examtaker011</t>
-  </si>
-  <si>
-    <t>Canada 06</t>
+    <t>controlleradmin012@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctorexam012@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtakeruser012@yopmail.com</t>
+  </si>
+  <si>
+    <t>examadmin012</t>
+  </si>
+  <si>
+    <t>proctor012</t>
+  </si>
+  <si>
+    <t>examtaker012</t>
+  </si>
+  <si>
+    <t>Canada 07</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2475B607-FAD3-4D30-A009-B7470DFFCBFD}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB62061-3406-4EE5-A704-423407183078}"/>
   <bookViews>
     <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,15 +120,6 @@
     <t>Canada 05</t>
   </si>
   <si>
-    <t>controlleradmin1129@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctorexam1129@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtakeruser1129@yopmail.com</t>
-  </si>
-  <si>
     <t>examadmin1129</t>
   </si>
   <si>
@@ -138,7 +129,16 @@
     <t>examtaker1129</t>
   </si>
   <si>
-    <t>Japan1129</t>
+    <t>controlleradmin1130@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctorexam1130@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtakeruser1130@yopmail.com</t>
+  </si>
+  <si>
+    <t>Japan1130</t>
   </si>
 </sst>
 </file>
@@ -302,6 +302,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,13 +1060,13 @@
     </row>
     <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="8">
         <v>243</v>
@@ -1080,13 +1084,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="8">
         <v>243</v>
@@ -1108,13 +1112,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8">
         <v>243</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB62061-3406-4EE5-A704-423407183078}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2187B34D-88BA-4961-88C9-9EA7B82D72E1}"/>
   <bookViews>
     <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,16 +129,16 @@
     <t>examtaker1129</t>
   </si>
   <si>
-    <t>controlleradmin1130@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctorexam1130@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtakeruser1130@yopmail.com</t>
-  </si>
-  <si>
-    <t>Japan1130</t>
+    <t>controlleradmin1131@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctorexam1131@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtakeruser1131@yopmail.com</t>
+  </si>
+  <si>
+    <t>Japan1131</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2187B34D-88BA-4961-88C9-9EA7B82D72E1}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F12A00E-40D2-4924-B78C-08E69B0C73F2}"/>
   <bookViews>
     <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,25 +120,25 @@
     <t>Canada 05</t>
   </si>
   <si>
-    <t>examadmin1129</t>
-  </si>
-  <si>
-    <t>proctor1129</t>
-  </si>
-  <si>
-    <t>examtaker1129</t>
-  </si>
-  <si>
-    <t>controlleradmin1131@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctorexam1131@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtakeruser1131@yopmail.com</t>
-  </si>
-  <si>
-    <t>Japan1131</t>
+    <t>examadmin1132</t>
+  </si>
+  <si>
+    <t>proctor1132</t>
+  </si>
+  <si>
+    <t>examtaker1132</t>
+  </si>
+  <si>
+    <t>controlleradmin1132@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctorexam1132@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtakeruser1132@yopmail.com</t>
+  </si>
+  <si>
+    <t>Japan1132</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F12A00E-40D2-4924-B78C-08E69B0C73F2}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E93AE0-DACA-4804-B0FE-6C1CB4B5491D}"/>
   <bookViews>
     <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,25 +120,25 @@
     <t>Canada 05</t>
   </si>
   <si>
-    <t>examadmin1132</t>
-  </si>
-  <si>
-    <t>proctor1132</t>
-  </si>
-  <si>
-    <t>examtaker1132</t>
-  </si>
-  <si>
-    <t>controlleradmin1132@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctorexam1132@yopmail.com</t>
-  </si>
-  <si>
-    <t>examtakeruser1132@yopmail.com</t>
-  </si>
-  <si>
-    <t>Japan1132</t>
+    <t>controlleradmin1232@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctorexam1232@yopmail.com</t>
+  </si>
+  <si>
+    <t>examtakeruser1232@yopmail.com</t>
+  </si>
+  <si>
+    <t>examadmin1232</t>
+  </si>
+  <si>
+    <t>proctor1232</t>
+  </si>
+  <si>
+    <t>examtaker1232</t>
+  </si>
+  <si>
+    <t>Japan1232</t>
   </si>
 </sst>
 </file>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8">
         <v>243</v>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8">
         <v>243</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8">
         <v>243</v>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/sahoo_suryakanta_focalpointk12_com/Documents/FP_Automation_Script/ExamCenter_Automation/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E93AE0-DACA-4804-B0FE-6C1CB4B5491D}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358FA6C5-3F56-4DF5-B7DF-855A2687EBBF}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2688" windowWidth="20532" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>Email</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Japan1232</t>
+  </si>
+  <si>
+    <t>fpkcontroller</t>
+  </si>
+  <si>
+    <t>159533</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -597,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +675,9 @@
         <v>18</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -685,16 +696,18 @@
       <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8">
-        <v>5</v>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F3" s="12">
         <v>6644</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -711,11 +724,11 @@
       <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="8">
-        <v>5</v>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12">
         <v>9494</v>
@@ -739,11 +752,11 @@
       <c r="C5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
-        <v>5</v>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F5" s="12">
         <v>8897</v>
@@ -978,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1060,9 @@
         <v>18</v>
       </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="G2" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -1077,7 +1092,9 @@
       <c r="F3" s="7">
         <v>6644</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>

--- a/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
+++ b/src/test/resources/ExcelFiles/UsersCreationDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RavaliManthena\OneDrive\Eclipse-EC\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{34327670-5C56-469D-83F8-4D5BF2868D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E93AE0-DACA-4804-B0FE-6C1CB4B5491D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11F47F1-D299-4622-B040-D89AC9F9D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -302,10 +302,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,23 +593,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -651,7 +647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>21</v>
@@ -675,7 +671,7 @@
       </c>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -701,7 +697,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -729,7 +725,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -763,7 +759,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -796,21 +792,21 @@
       <selection activeCell="L2" activeCellId="1" sqref="K2 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="2"/>
     <col min="11" max="11" width="15" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -848,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="7" t="s">
         <v>23</v>
@@ -872,7 +868,7 @@
       </c>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -897,7 +893,7 @@
       <c r="J3" s="7"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -925,7 +921,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -959,7 +955,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
     </row>
@@ -978,23 +974,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="18" t="s">
         <v>19</v>
@@ -1058,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1078,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1106,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -1144,7 +1140,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
     </row>
   </sheetData>
